--- a/HiHat + Snare/V1.1/bom/HiHat+Snare_BOM.xlsx
+++ b/HiHat + Snare/V1.1/bom/HiHat+Snare_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\synthe modulaire\Synth\HiHat + Snare\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\synthe modulaire\Synth\HiHat + Snare\V1.1\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F009F-16A2-4C1F-9D90-D9FEABF3D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008072C8-864C-4163-94F9-BC514CB9D466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="80" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>References</t>
   </si>
@@ -362,6 +362,24 @@
   </si>
   <si>
     <t>680pF, 50V, ceramic disc</t>
+  </si>
+  <si>
+    <t>C24, C25</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>22pF, 50V, ceramic disc</t>
+  </si>
+  <si>
+    <t>R18, R22</t>
+  </si>
+  <si>
+    <t>R20, R23</t>
+  </si>
+  <si>
+    <t>330k</t>
   </si>
 </sst>
 </file>
@@ -966,10 +984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,7 +999,7 @@
     <col min="6" max="6" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
@@ -1034,7 +1052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
@@ -1057,11 +1075,11 @@
         <v>0.02</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H30" si="0">G3*B3</f>
+        <f t="shared" ref="H3:H33" si="0">G3*B3</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>48</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1169,94 +1187,94 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>51</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.03</v>
+        <v>110</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.01</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="15" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <v>0.08</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1275,15 +1293,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -1302,15 +1320,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -1326,18 +1344,18 @@
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1352,25 +1370,25 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H14" si="1">G14*B14</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>64</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>27</v>
@@ -1379,22 +1397,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H15" si="2">G15*B15</f>
         <v>0.03</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>66</v>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1410,305 +1425,311 @@
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.01</v>
-      </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1">
-        <v>1.99</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G20" s="1">
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.03</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
-        <v>3.3879999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>75</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="shared" si="0"/>
-        <v>1.694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="2">
-        <v>6</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1">
-        <v>0.03</v>
+        <v>0.59</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>73</v>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="23">
-        <v>0.02</v>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.84699999999999998</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>3.3879999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>75</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="23">
-        <f>0.15/4</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="1">
-        <f>0.2/4</f>
-        <v>0.05</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="1">
-        <f>0.2/4</f>
-        <v>0.05</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="23" t="s">
         <v>44</v>
       </c>
@@ -1716,76 +1737,154 @@
         <f>0.15/4</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H28" s="24">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="9">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E29" s="23"/>
-      <c r="F29" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="23">
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1">
+        <f>0.2/4</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+      <c r="H30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="23">
+        <f>0.15/4</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="23">
+        <f>0.2/4</f>
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B33" s="10">
         <v>4</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G33" s="11">
         <f>0.32</f>
         <v>0.32</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H33" s="21">
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G31" s="13" t="s">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="14">
-        <f>SUM(H2:H30)</f>
-        <v>10.989499999999998</v>
+      <c r="H34" s="14">
+        <f>SUM(H2:H33)</f>
+        <v>11.069499999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{C6C66F8D-7258-4EE1-95D5-14AEE2656C85}"/>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{C6C66F8D-7258-4EE1-95D5-14AEE2656C85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
